--- a/biology/Botanique/Forêt_de_Fausses-Reposes/Forêt_de_Fausses-Reposes.xlsx
+++ b/biology/Botanique/Forêt_de_Fausses-Reposes/Forêt_de_Fausses-Reposes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Fausses-Reposes</t>
+          <t>Forêt_de_Fausses-Reposes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La forêt de Fausses-Reposes est une forêt domaniale française de 616 hectares 28 ares 20 centiares située principalement dans les Hauts-de-Seine (372 hectares 71 ares 77 centiares) et secondairement dans les Yvelines (242 hectares 56 ares 43 centiares). Ancienne forêt royale proche de Versailles, c'est aujourd'hui une forêt gérée par l'Office national des forêts (ONF). C'est, en surface, la deuxième forêt des Hauts-de-Seine après la forêt de Meudon.
@@ -491,7 +503,7 @@
 Malgré l'extrême proximité de Paris, la forêt reste relativement sauvage, ce qui en fait un lieu de promenade fréquenté. Elle est parcourue par des sentiers de randonnée balisés et des pistes cavalières.
 Fausses-Reposes est la seule grande forêt, avec celle de Meudon sa voisine, située à moins de dix kilomètres de Paris.
 Elle a été classée en forêt de protection par décret en Conseil d'État du 23 août 2007.
-En janvier 2021, la communauté d'agglomération Versailles Grand Parc et l'Office national des forêts signent une convention de trois ans « pour favoriser l'accueil dans les forêts du territoire tout en réduisant les déchets sauvages ». La forêt de Fausses-Reposes est concernée par l'accord[2].
+En janvier 2021, la communauté d'agglomération Versailles Grand Parc et l'Office national des forêts signent une convention de trois ans « pour favoriser l'accueil dans les forêts du territoire tout en réduisant les déchets sauvages ». La forêt de Fausses-Reposes est concernée par l'accord.
 </t>
         </is>
       </c>
@@ -502,7 +514,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Fausses-Reposes</t>
+          <t>Forêt_de_Fausses-Reposes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -520,7 +532,9 @@
           <t>Littérature</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette forêt est au cœur de la nouvelle de Boris Vian : Le loup-garou (Boris Vian est né et a vécu à Ville-d'Avray). Son héros, Denis, « habitait dans le bois de Fausses-Reposes, en bas de la côte de Picardie (...) ». 
 Julien Gracq fait quant à lui une sommaire allusion à la forêt de Fausses-Reposes, dans le recueil Les Eaux étroites. Il lui compare un bois situé dans la vallée de l'Evre : « [...] mauvaise halte, pareille à celle qu'évoque pour moi en un tout autre lieu le nom malfamé du bois de Fausses Reposes ».
